--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_20.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:02:37.840000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:14.520000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:00.560000', '0:00:06.300000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(87.44, 110.44)]</t>
+          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1405405405405405</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.130022, 25.095075)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.351768, 40.095623)]</t>
+          <t>[('0:00:13.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:00.560000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_292</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4079391891891892</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['Eb', 'Bb', 'Ab', 'Eb', 'Bb', 'Ab', 'Eb', 'Bb', 'Ab', 'Eb', 'Bb', 'Ab', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[['A/5', 'E', 'D/2', 'A/5', 'E', 'D', 'A', 'E', 'D', 'A', 'E', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:01:09.294716', '0:01:29.089727')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:41.616530', '0:00:55.560113')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5054945054945055</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[('0:02:37.019000', '0:02:42.932000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:04.605000', '0:00:21.095000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05572139303482587</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'F:min/5']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.868843, 21.242721)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.384331, 46.388231)]</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D/b7']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.402743, 18.779705)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(31.439841, 35.781972)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.44, 6.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(43.18, 45.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
